--- a/data_inputs/Inside_Park_Tables/JURIEN_202201_JSE_inside-outside_park_a001.xlsx
+++ b/data_inputs/Inside_Park_Tables/JURIEN_202201_JSE_inside-outside_park_a001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nefscfile\PassiveAcoustics\Stellwagen_Old\DATA_ANALYSIS\PARKS_AUSTRALIA\AMP_Data\JURIEN_SOUTHEAST\Vessel Propagation\Inside_Park_Tables\JSE_D1_alpha_001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.mccordic.NMFS\Documents\GitHub\AMP_ves_summary\data_inputs\Inside_Park_Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>Filename</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>805568538.220111003558_sel01_S1.wav</t>
-  </si>
-  <si>
-    <t>220111003558</t>
   </si>
   <si>
     <t>S1</t>
@@ -1081,10 +1078,13 @@
   <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1146,11 +1146,11 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>220105010000</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
       </c>
       <c r="D2">
         <v>107.36606665086801</v>
@@ -1200,13 +1200,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>220105010000</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
       <c r="D3">
         <v>105.313876762189</v>
@@ -1256,13 +1256,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>220105010000</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4">
         <v>94.918242594686404</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>220105010000</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5">
         <v>95.638034691043302</v>
@@ -1368,13 +1368,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>220105010000</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
       </c>
       <c r="D6">
         <v>102.985871553058</v>
@@ -1424,13 +1424,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>220105010000</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
       </c>
       <c r="D7">
         <v>122.04464436039299</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>220105010000</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
       </c>
       <c r="D8">
         <v>101.049951748857</v>
@@ -1536,13 +1536,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>220105010000</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
       </c>
       <c r="D9">
         <v>135.244747238332</v>
@@ -1592,13 +1592,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>220105010000</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
       </c>
       <c r="D10">
         <v>109.718532750802</v>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>220105010000</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
       </c>
       <c r="D11">
         <v>103.167248660699</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>220105010000</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
       </c>
       <c r="D12">
         <v>109.519151905838</v>
@@ -1760,13 +1760,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>220105010000</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
       </c>
       <c r="D13">
         <v>111.334732176598</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>220105010000</v>
+      </c>
+      <c r="C14" t="s">
         <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
       </c>
       <c r="D14">
         <v>142.03856025364701</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>220105010000</v>
+      </c>
+      <c r="C15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
       </c>
       <c r="D15">
         <v>102.24827638432799</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>220105010000</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
       </c>
       <c r="D16">
         <v>101.917834439617</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>220105010000</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
       <c r="D17">
         <v>106.875153487755</v>
@@ -2040,13 +2040,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>220105010000</v>
+      </c>
+      <c r="C18" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
       </c>
       <c r="D18">
         <v>93.552950027872399</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>220105010000</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
       </c>
       <c r="D19">
         <v>96.782543008659999</v>
@@ -2152,13 +2152,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>220105010000</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
       </c>
       <c r="D20">
         <v>96.514693596197205</v>
@@ -2208,13 +2208,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>220105010000</v>
+      </c>
+      <c r="C21" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
       </c>
       <c r="D21">
         <v>96.146441128836102</v>
@@ -2264,13 +2264,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>220105010000</v>
+      </c>
+      <c r="C22" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
       </c>
       <c r="D22">
         <v>97.984000412276899</v>
@@ -2320,13 +2320,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>220105010000</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
       </c>
       <c r="D23">
         <v>130.97269593716501</v>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>220105010000</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
       </c>
       <c r="D24">
         <v>99.032748294062699</v>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>220105010000</v>
+      </c>
+      <c r="C25" t="s">
         <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
       </c>
       <c r="D25">
         <v>99.465312863267897</v>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26">
+        <v>220105010000</v>
+      </c>
+      <c r="C26" t="s">
         <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
       </c>
       <c r="D26">
         <v>101.882692170322</v>
@@ -2544,13 +2544,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27">
+        <v>220105010000</v>
+      </c>
+      <c r="C27" t="s">
         <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>70</v>
       </c>
       <c r="D27">
         <v>97.192546060908896</v>
@@ -2600,13 +2600,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>220105010000</v>
+      </c>
+      <c r="C28" t="s">
         <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
       </c>
       <c r="D28">
         <v>100.003801085167</v>
@@ -2656,13 +2656,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <v>220105010000</v>
+      </c>
+      <c r="C29" t="s">
         <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>74</v>
       </c>
       <c r="D29">
         <v>100.90486413055901</v>
@@ -2712,13 +2712,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30">
+        <v>220105010000</v>
+      </c>
+      <c r="C30" t="s">
         <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
       </c>
       <c r="D30">
         <v>102.79241655086599</v>
@@ -2768,13 +2768,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31">
+        <v>220105010000</v>
+      </c>
+      <c r="C31" t="s">
         <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
       </c>
       <c r="D31">
         <v>107.377889817991</v>
@@ -2824,13 +2824,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32">
+        <v>220105010000</v>
+      </c>
+      <c r="C32" t="s">
         <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
       </c>
       <c r="D32">
         <v>96.142582233660093</v>
@@ -2880,13 +2880,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>220105010000</v>
+      </c>
+      <c r="C33" t="s">
         <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
       </c>
       <c r="D33">
         <v>97.167612255454003</v>
@@ -2936,13 +2936,13 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34">
+        <v>220105010000</v>
+      </c>
+      <c r="C34" t="s">
         <v>83</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
       </c>
       <c r="D34">
         <v>122.43028675601499</v>
@@ -2992,13 +2992,13 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35">
+        <v>220105010000</v>
+      </c>
+      <c r="C35" t="s">
         <v>85</v>
-      </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
       </c>
       <c r="D35">
         <v>94.451648878127202</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36">
+        <v>220105010000</v>
+      </c>
+      <c r="C36" t="s">
         <v>87</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
       </c>
       <c r="D36">
         <v>88.471503971563095</v>
@@ -3104,13 +3104,13 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37">
+        <v>220105010000</v>
+      </c>
+      <c r="C37" t="s">
         <v>89</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
       </c>
       <c r="D37">
         <v>92.104635477036993</v>
@@ -3160,13 +3160,13 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>220105010000</v>
+      </c>
+      <c r="C38" t="s">
         <v>91</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>92</v>
       </c>
       <c r="D38">
         <v>102.62410803078799</v>
@@ -3216,13 +3216,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39">
+        <v>220105010000</v>
+      </c>
+      <c r="C39" t="s">
         <v>93</v>
-      </c>
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" t="s">
-        <v>94</v>
       </c>
       <c r="D39">
         <v>91.6544280067165</v>
@@ -3272,13 +3272,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40">
+        <v>220105010000</v>
+      </c>
+      <c r="C40" t="s">
         <v>95</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
       </c>
       <c r="D40">
         <v>94.955719131369605</v>
@@ -3328,13 +3328,13 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41">
+        <v>220105010000</v>
+      </c>
+      <c r="C41" t="s">
         <v>97</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>98</v>
       </c>
       <c r="D41">
         <v>117.907922237245</v>
@@ -3384,13 +3384,13 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>220105010000</v>
+      </c>
+      <c r="C42" t="s">
         <v>99</v>
-      </c>
-      <c r="B42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" t="s">
-        <v>100</v>
       </c>
       <c r="D42">
         <v>108.951659035215</v>
@@ -3440,13 +3440,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>220105010000</v>
+      </c>
+      <c r="C43" t="s">
         <v>101</v>
-      </c>
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
       </c>
       <c r="D43">
         <v>97.927631520061695</v>
@@ -3496,13 +3496,13 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44">
+        <v>220105010000</v>
+      </c>
+      <c r="C44" t="s">
         <v>103</v>
-      </c>
-      <c r="B44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" t="s">
-        <v>104</v>
       </c>
       <c r="D44">
         <v>103.083210355783</v>
@@ -3552,13 +3552,13 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45">
+        <v>220105010000</v>
+      </c>
+      <c r="C45" t="s">
         <v>105</v>
-      </c>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
       </c>
       <c r="D45">
         <v>94.8857504406365</v>
@@ -3608,13 +3608,13 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46">
+        <v>220105010000</v>
+      </c>
+      <c r="C46" t="s">
         <v>107</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" t="s">
-        <v>108</v>
       </c>
       <c r="D46">
         <v>110.362019254686</v>
@@ -3664,13 +3664,13 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47">
+        <v>220105010000</v>
+      </c>
+      <c r="C47" t="s">
         <v>109</v>
-      </c>
-      <c r="B47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" t="s">
-        <v>110</v>
       </c>
       <c r="D47">
         <v>92.536896254621595</v>
@@ -3720,13 +3720,13 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48">
+        <v>220105010000</v>
+      </c>
+      <c r="C48" t="s">
         <v>111</v>
-      </c>
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" t="s">
-        <v>112</v>
       </c>
       <c r="D48">
         <v>110.525377054188</v>
@@ -3776,13 +3776,13 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49">
+        <v>220105010000</v>
+      </c>
+      <c r="C49" t="s">
         <v>113</v>
-      </c>
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" t="s">
-        <v>114</v>
       </c>
       <c r="D49">
         <v>92.695096896913697</v>
@@ -3832,13 +3832,13 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50">
+        <v>220105010000</v>
+      </c>
+      <c r="C50" t="s">
         <v>115</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>116</v>
       </c>
       <c r="D50">
         <v>92.979994827988406</v>
@@ -3888,13 +3888,13 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51">
+        <v>220105010000</v>
+      </c>
+      <c r="C51" t="s">
         <v>117</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" t="s">
-        <v>118</v>
       </c>
       <c r="D51">
         <v>98.382700451850795</v>
@@ -3944,13 +3944,13 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52">
+        <v>220105010000</v>
+      </c>
+      <c r="C52" t="s">
         <v>119</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s">
-        <v>120</v>
       </c>
       <c r="D52">
         <v>96.460335075820893</v>
@@ -4000,13 +4000,13 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53">
+        <v>220105010000</v>
+      </c>
+      <c r="C53" t="s">
         <v>121</v>
-      </c>
-      <c r="B53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" t="s">
-        <v>122</v>
       </c>
       <c r="D53">
         <v>90.163751917993295</v>
@@ -4056,13 +4056,13 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54">
+        <v>220105010000</v>
+      </c>
+      <c r="C54" t="s">
         <v>123</v>
-      </c>
-      <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" t="s">
-        <v>124</v>
       </c>
       <c r="D54">
         <v>98.224626799237996</v>
@@ -4112,13 +4112,13 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55">
+        <v>220105010000</v>
+      </c>
+      <c r="C55" t="s">
         <v>125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" t="s">
-        <v>126</v>
       </c>
       <c r="D55">
         <v>104.765684682535</v>
@@ -4168,13 +4168,13 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56">
+        <v>220105010000</v>
+      </c>
+      <c r="C56" t="s">
         <v>127</v>
-      </c>
-      <c r="B56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" t="s">
-        <v>128</v>
       </c>
       <c r="D56">
         <v>116.280256371858</v>
@@ -4224,13 +4224,13 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57">
+        <v>220105010000</v>
+      </c>
+      <c r="C57" t="s">
         <v>129</v>
-      </c>
-      <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s">
-        <v>130</v>
       </c>
       <c r="D57">
         <v>126.777362182036</v>
@@ -4280,13 +4280,13 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58">
+        <v>220105010000</v>
+      </c>
+      <c r="C58" t="s">
         <v>131</v>
-      </c>
-      <c r="B58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" t="s">
-        <v>132</v>
       </c>
       <c r="D58">
         <v>98.531431237546897</v>
@@ -4336,13 +4336,13 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59">
+        <v>220105010000</v>
+      </c>
+      <c r="C59" t="s">
         <v>133</v>
-      </c>
-      <c r="B59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" t="s">
-        <v>134</v>
       </c>
       <c r="D59">
         <v>124.411701953079</v>
@@ -4392,13 +4392,13 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60">
+        <v>220105010000</v>
+      </c>
+      <c r="C60" t="s">
         <v>135</v>
-      </c>
-      <c r="B60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" t="s">
-        <v>136</v>
       </c>
       <c r="D60">
         <v>95.540859220901197</v>
@@ -4448,13 +4448,13 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61">
+        <v>220105010000</v>
+      </c>
+      <c r="C61" t="s">
         <v>137</v>
-      </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" t="s">
-        <v>138</v>
       </c>
       <c r="D61">
         <v>94.369106762129704</v>
@@ -4504,13 +4504,13 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62">
+        <v>220105010000</v>
+      </c>
+      <c r="C62" t="s">
         <v>139</v>
-      </c>
-      <c r="B62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" t="s">
-        <v>140</v>
       </c>
       <c r="D62">
         <v>95.794380810806004</v>
@@ -4560,13 +4560,13 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63">
+        <v>220105010000</v>
+      </c>
+      <c r="C63" t="s">
         <v>141</v>
-      </c>
-      <c r="B63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" t="s">
-        <v>142</v>
       </c>
       <c r="D63">
         <v>92.227137330579097</v>
@@ -4616,13 +4616,13 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64">
+        <v>220105010000</v>
+      </c>
+      <c r="C64" t="s">
         <v>143</v>
-      </c>
-      <c r="B64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" t="s">
-        <v>144</v>
       </c>
       <c r="D64">
         <v>131.513469133162</v>
@@ -4672,13 +4672,13 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65">
+        <v>220105010000</v>
+      </c>
+      <c r="C65" t="s">
         <v>145</v>
-      </c>
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" t="s">
-        <v>146</v>
       </c>
       <c r="D65">
         <v>124.725917538281</v>
@@ -4728,13 +4728,13 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66">
+        <v>220105010000</v>
+      </c>
+      <c r="C66" t="s">
         <v>147</v>
-      </c>
-      <c r="B66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" t="s">
-        <v>148</v>
       </c>
       <c r="D66">
         <v>95.767990960024804</v>
@@ -4784,13 +4784,13 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67">
+        <v>220105010000</v>
+      </c>
+      <c r="C67" t="s">
         <v>149</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" t="s">
-        <v>150</v>
       </c>
       <c r="D67">
         <v>102.653593045153</v>
@@ -4840,13 +4840,13 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68">
+        <v>220105010000</v>
+      </c>
+      <c r="C68" t="s">
         <v>151</v>
-      </c>
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" t="s">
-        <v>152</v>
       </c>
       <c r="D68">
         <v>99.466931498369107</v>
@@ -4896,13 +4896,13 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69">
+        <v>220105010000</v>
+      </c>
+      <c r="C69" t="s">
         <v>153</v>
-      </c>
-      <c r="B69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
       </c>
       <c r="D69">
         <v>98.466386430367507</v>
@@ -4952,13 +4952,13 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70">
+        <v>220105010000</v>
+      </c>
+      <c r="C70" t="s">
         <v>155</v>
-      </c>
-      <c r="B70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" t="s">
-        <v>156</v>
       </c>
       <c r="D70">
         <v>96.955945085611205</v>
@@ -5008,13 +5008,13 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71">
+        <v>220105010000</v>
+      </c>
+      <c r="C71" t="s">
         <v>157</v>
-      </c>
-      <c r="B71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" t="s">
-        <v>158</v>
       </c>
       <c r="D71">
         <v>105.668211055149</v>
@@ -5064,13 +5064,13 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72">
+        <v>220105010000</v>
+      </c>
+      <c r="C72" t="s">
         <v>159</v>
-      </c>
-      <c r="B72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" t="s">
-        <v>160</v>
       </c>
       <c r="D72">
         <v>125.49607811748901</v>
@@ -5120,13 +5120,13 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73">
+        <v>220105010000</v>
+      </c>
+      <c r="C73" t="s">
         <v>161</v>
-      </c>
-      <c r="B73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" t="s">
-        <v>162</v>
       </c>
       <c r="D73">
         <v>100.49585428105399</v>
@@ -5176,13 +5176,13 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74">
+        <v>220105010000</v>
+      </c>
+      <c r="C74" t="s">
         <v>163</v>
-      </c>
-      <c r="B74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" t="s">
-        <v>164</v>
       </c>
       <c r="D74">
         <v>100.274009434056</v>
@@ -5232,13 +5232,13 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75">
+        <v>220105010000</v>
+      </c>
+      <c r="C75" t="s">
         <v>165</v>
-      </c>
-      <c r="B75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" t="s">
-        <v>166</v>
       </c>
       <c r="D75">
         <v>118.133169684199</v>
@@ -5288,13 +5288,13 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76">
+        <v>220105010000</v>
+      </c>
+      <c r="C76" t="s">
         <v>167</v>
-      </c>
-      <c r="B76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" t="s">
-        <v>168</v>
       </c>
       <c r="D76">
         <v>119.929496844672</v>
@@ -5344,13 +5344,13 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77">
+        <v>220105010000</v>
+      </c>
+      <c r="C77" t="s">
         <v>169</v>
-      </c>
-      <c r="B77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" t="s">
-        <v>170</v>
       </c>
       <c r="D77">
         <v>98.901298672606998</v>
@@ -5400,13 +5400,13 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78">
+        <v>220105010000</v>
+      </c>
+      <c r="C78" t="s">
         <v>171</v>
-      </c>
-      <c r="B78" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" t="s">
-        <v>172</v>
       </c>
       <c r="D78">
         <v>100.475904491517</v>
@@ -5456,13 +5456,13 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79">
+        <v>220105010000</v>
+      </c>
+      <c r="C79" t="s">
         <v>173</v>
-      </c>
-      <c r="B79" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" t="s">
-        <v>174</v>
       </c>
       <c r="D79">
         <v>95.997764231597202</v>
@@ -5512,13 +5512,13 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80">
+        <v>220105010000</v>
+      </c>
+      <c r="C80" t="s">
         <v>175</v>
-      </c>
-      <c r="B80" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" t="s">
-        <v>176</v>
       </c>
       <c r="D80">
         <v>95.553567663788002</v>
@@ -5568,13 +5568,13 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81">
+        <v>220105010000</v>
+      </c>
+      <c r="C81" t="s">
         <v>177</v>
-      </c>
-      <c r="B81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" t="s">
-        <v>178</v>
       </c>
       <c r="D81">
         <v>93.361763749396999</v>
@@ -5624,13 +5624,13 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82">
+        <v>220105010000</v>
+      </c>
+      <c r="C82" t="s">
         <v>179</v>
-      </c>
-      <c r="B82" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" t="s">
-        <v>180</v>
       </c>
       <c r="D82">
         <v>95.579510077475604</v>
@@ -5680,13 +5680,13 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83">
+        <v>220105010000</v>
+      </c>
+      <c r="C83" t="s">
         <v>181</v>
-      </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s">
-        <v>182</v>
       </c>
       <c r="D83">
         <v>88.374104168463305</v>
@@ -5736,13 +5736,13 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84">
+        <v>220105010000</v>
+      </c>
+      <c r="C84" t="s">
         <v>183</v>
-      </c>
-      <c r="B84" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" t="s">
-        <v>184</v>
       </c>
       <c r="D84">
         <v>88.2451586751816</v>
@@ -5792,13 +5792,13 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85">
+        <v>220105010000</v>
+      </c>
+      <c r="C85" t="s">
         <v>185</v>
-      </c>
-      <c r="B85" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" t="s">
-        <v>186</v>
       </c>
       <c r="D85">
         <v>93.841913355027799</v>
@@ -5848,13 +5848,13 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86">
+        <v>220105010000</v>
+      </c>
+      <c r="C86" t="s">
         <v>187</v>
-      </c>
-      <c r="B86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" t="s">
-        <v>188</v>
       </c>
       <c r="D86">
         <v>90.405565718102807</v>
@@ -5904,13 +5904,13 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87">
+        <v>220105010000</v>
+      </c>
+      <c r="C87" t="s">
         <v>189</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" t="s">
-        <v>190</v>
       </c>
       <c r="D87">
         <v>87.789410421449304</v>
@@ -5960,13 +5960,13 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88">
+        <v>220105010000</v>
+      </c>
+      <c r="C88" t="s">
         <v>191</v>
-      </c>
-      <c r="B88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" t="s">
-        <v>192</v>
       </c>
       <c r="D88">
         <v>93.609582102814002</v>
@@ -6016,13 +6016,13 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89">
+        <v>220105010000</v>
+      </c>
+      <c r="C89" t="s">
         <v>193</v>
-      </c>
-      <c r="B89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" t="s">
-        <v>194</v>
       </c>
       <c r="D89">
         <v>87.523820184429596</v>
@@ -6072,13 +6072,13 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90">
+        <v>220105010000</v>
+      </c>
+      <c r="C90" t="s">
         <v>195</v>
-      </c>
-      <c r="B90" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" t="s">
-        <v>196</v>
       </c>
       <c r="D90">
         <v>91.403666867804404</v>
@@ -6128,13 +6128,13 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91">
+        <v>220105010000</v>
+      </c>
+      <c r="C91" t="s">
         <v>197</v>
-      </c>
-      <c r="B91" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" t="s">
-        <v>198</v>
       </c>
       <c r="D91">
         <v>122.123141497776</v>
@@ -6184,13 +6184,13 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92">
+        <v>220105010000</v>
+      </c>
+      <c r="C92" t="s">
         <v>199</v>
-      </c>
-      <c r="B92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92" t="s">
-        <v>200</v>
       </c>
       <c r="D92">
         <v>100.478036290362</v>
@@ -6240,13 +6240,13 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93">
+        <v>220105010000</v>
+      </c>
+      <c r="C93" t="s">
         <v>201</v>
-      </c>
-      <c r="B93" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" t="s">
-        <v>202</v>
       </c>
       <c r="D93">
         <v>103.10952687591001</v>
@@ -6296,13 +6296,13 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94">
+        <v>220105010000</v>
+      </c>
+      <c r="C94" t="s">
         <v>203</v>
-      </c>
-      <c r="B94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" t="s">
-        <v>204</v>
       </c>
       <c r="D94">
         <v>97.2827012741662</v>
@@ -6352,13 +6352,13 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95">
+        <v>220105010000</v>
+      </c>
+      <c r="C95" t="s">
         <v>205</v>
-      </c>
-      <c r="B95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" t="s">
-        <v>206</v>
       </c>
       <c r="D95">
         <v>105.823142422792</v>
@@ -6408,13 +6408,13 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96">
+        <v>220105010000</v>
+      </c>
+      <c r="C96" t="s">
         <v>207</v>
-      </c>
-      <c r="B96" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" t="s">
-        <v>208</v>
       </c>
       <c r="D96">
         <v>94.084177641166704</v>
@@ -6464,13 +6464,13 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97">
+        <v>220105010000</v>
+      </c>
+      <c r="C97" t="s">
         <v>209</v>
-      </c>
-      <c r="B97" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" t="s">
-        <v>210</v>
       </c>
       <c r="D97">
         <v>84.740159110685795</v>
@@ -6520,13 +6520,13 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98">
+        <v>220105010000</v>
+      </c>
+      <c r="C98" t="s">
         <v>211</v>
-      </c>
-      <c r="B98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" t="s">
-        <v>212</v>
       </c>
       <c r="D98">
         <v>89.134612430965305</v>
@@ -6576,13 +6576,13 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99">
+        <v>220105010000</v>
+      </c>
+      <c r="C99" t="s">
         <v>213</v>
-      </c>
-      <c r="B99" t="s">
-        <v>19</v>
-      </c>
-      <c r="C99" t="s">
-        <v>214</v>
       </c>
       <c r="D99">
         <v>144.03709682230101</v>
@@ -6632,13 +6632,13 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100">
+        <v>220105010000</v>
+      </c>
+      <c r="C100" t="s">
         <v>215</v>
-      </c>
-      <c r="B100" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" t="s">
-        <v>216</v>
       </c>
       <c r="D100">
         <v>95.155224450977897</v>
@@ -6688,13 +6688,13 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101">
+        <v>220105010000</v>
+      </c>
+      <c r="C101" t="s">
         <v>217</v>
-      </c>
-      <c r="B101" t="s">
-        <v>19</v>
-      </c>
-      <c r="C101" t="s">
-        <v>218</v>
       </c>
       <c r="D101">
         <v>95.933569401241101</v>
@@ -6744,13 +6744,13 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102">
+        <v>220105010000</v>
+      </c>
+      <c r="C102" t="s">
         <v>219</v>
-      </c>
-      <c r="B102" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" t="s">
-        <v>220</v>
       </c>
       <c r="D102">
         <v>110.194498024933</v>
@@ -6800,13 +6800,13 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103">
+        <v>220105010000</v>
+      </c>
+      <c r="C103" t="s">
         <v>221</v>
-      </c>
-      <c r="B103" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" t="s">
-        <v>222</v>
       </c>
       <c r="D103">
         <v>134.595063244171</v>
@@ -6856,13 +6856,13 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104">
+        <v>220105010000</v>
+      </c>
+      <c r="C104" t="s">
         <v>223</v>
-      </c>
-      <c r="B104" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" t="s">
-        <v>224</v>
       </c>
       <c r="D104">
         <v>105.925768239929</v>
@@ -6912,13 +6912,13 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105">
+        <v>220105010000</v>
+      </c>
+      <c r="C105" t="s">
         <v>225</v>
-      </c>
-      <c r="B105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" t="s">
-        <v>226</v>
       </c>
       <c r="D105">
         <v>115.626328014187</v>
@@ -6968,13 +6968,13 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106">
+        <v>220105010000</v>
+      </c>
+      <c r="C106" t="s">
         <v>227</v>
-      </c>
-      <c r="B106" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" t="s">
-        <v>228</v>
       </c>
       <c r="D106">
         <v>119.206412721147</v>
@@ -7024,13 +7024,13 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107">
+        <v>220105010000</v>
+      </c>
+      <c r="C107" t="s">
         <v>229</v>
-      </c>
-      <c r="B107" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" t="s">
-        <v>230</v>
       </c>
       <c r="D107">
         <v>107.690144348159</v>
@@ -7080,13 +7080,13 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108">
+        <v>220105010000</v>
+      </c>
+      <c r="C108" t="s">
         <v>231</v>
-      </c>
-      <c r="B108" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" t="s">
-        <v>232</v>
       </c>
       <c r="D108">
         <v>108.897982390354</v>
@@ -7136,13 +7136,13 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109">
+        <v>220105010000</v>
+      </c>
+      <c r="C109" t="s">
         <v>233</v>
-      </c>
-      <c r="B109" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" t="s">
-        <v>234</v>
       </c>
       <c r="D109">
         <v>88.183354951911198</v>
@@ -7192,13 +7192,13 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110">
+        <v>220105010000</v>
+      </c>
+      <c r="C110" t="s">
         <v>235</v>
-      </c>
-      <c r="B110" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" t="s">
-        <v>236</v>
       </c>
       <c r="D110">
         <v>91.519763641860195</v>
@@ -7248,13 +7248,13 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111">
+        <v>220105010000</v>
+      </c>
+      <c r="C111" t="s">
         <v>237</v>
-      </c>
-      <c r="B111" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" t="s">
-        <v>238</v>
       </c>
       <c r="D111">
         <v>95.384986314295006</v>
@@ -7304,13 +7304,13 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112">
+        <v>220105010000</v>
+      </c>
+      <c r="C112" t="s">
         <v>239</v>
-      </c>
-      <c r="B112" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" t="s">
-        <v>240</v>
       </c>
       <c r="D112">
         <v>98.2099752038215</v>
